--- a/siglas/A4_AWS.xlsx
+++ b/siglas/A4_AWS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="18960" windowHeight="4425" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inputs" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="metadata" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VH Calc Input" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Inputs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="metadata" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="VH Calc Input" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Dedicated_Instances">'VH Calc Input'!$B$3:$B$6</definedName>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>9 x BACKUP 8GB RAM 8vCPU (WEBSERVER)</t>
+          <t>9 x BACKUP 16GB RAM 8vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="D4" s="25" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>4 x BACKUP 16GB RAM 16vCPU (WEBSERVER)</t>
+          <t>4 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="D5" s="22" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>3 x BACKUP 24GB RAM 8vCPU (WEBSERVER)</t>
+          <t>3 x BACKUP 32GB RAM 8vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="D7" s="22" t="inlineStr">
